--- a/biology/Médecine/Jean_Lugol/Jean_Lugol.xlsx
+++ b/biology/Médecine/Jean_Lugol/Jean_Lugol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Guillaume Auguste Lugol, né le 10 août 1788[1] à Montauban et mort le 16 septembre 1851 à Neuilly-sur-Seine, est un médecin français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Guillaume Auguste Lugol, né le 10 août 1788 à Montauban et mort le 16 septembre 1851 à Neuilly-sur-Seine, est un médecin français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la médecine à Paris et devient docteur en médecine en 1812. En 1819, il travaille comme médecin à l'Hôpital Saint-Louis, un emploi qu'il occupa jusqu'à sa retraite. Après son décès, sa fille Adèle-Augustine, épousa en 1857 Paul Broca.
 Lugol s'intéressait à la tuberculose et a présenté un mémoire à l'Académie royale des sciences à Paris, dans lequel il plaidait l'utilisation d'air frais, d'exercices physiques, de bains froids et de médicaments. Il a également publié quatre livres sur les « maladies scrophulaires » et leur traitement (1829, 1830, 1831, 1834).
@@ -545,7 +559,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De l'adolescence, considérée comme cause de plusieurs maladies et comme époque critique de quelques autres [thèse présentée et soutenue à la Faculté de médecine de Paris le 27 mars 1812], Texte intégral.
 Discours sur le système naturel des idées appliqué à l'enseignement de la médecine, Croullebois (1815).
